--- a/biology/Botanique/Teucrium_ajugaceum/Teucrium_ajugaceum.xlsx
+++ b/biology/Botanique/Teucrium_ajugaceum/Teucrium_ajugaceum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Teucrium ajugaceum est une espèce végétale de la famille des Lamiaceae. On croyait l'espèce éteinte  mais elle aurait été redécouverte par deux fois entre Cooktown et la rivière Lockhart, dans la péninsule du cap York au Queensland (Australie), la première fois en mai 2004, la deuxième en avril 2008. Avant cela, l'espèce n'avait pas été vue depuis 1891[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teucrium ajugaceum est une espèce végétale de la famille des Lamiaceae. On croyait l'espèce éteinte  mais elle aurait été redécouverte par deux fois entre Cooktown et la rivière Lockhart, dans la péninsule du cap York au Queensland (Australie), la première fois en mai 2004, la deuxième en avril 2008. Avant cela, l'espèce n'avait pas été vue depuis 1891,.
 </t>
         </is>
       </c>
